--- a/waste/대형폐기물분류표_송파구.xlsx
+++ b/waste/대형폐기물분류표_송파구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\aivle\6m\bigproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\aivle\6m\bigproject\backend\aivle-ai-team10-be-webserver\waste\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6067,8 +6067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -6205,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -6234,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -6263,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -6379,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -6408,7 +6408,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
@@ -6437,7 +6437,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>231</v>
@@ -6466,7 +6466,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>231</v>
@@ -6495,7 +6495,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>231</v>
@@ -6524,7 +6524,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>231</v>
@@ -6553,7 +6553,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>231</v>
@@ -6582,7 +6582,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>231</v>
@@ -6611,7 +6611,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>231</v>
@@ -6640,7 +6640,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>231</v>
@@ -6669,7 +6669,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>231</v>
@@ -6698,7 +6698,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>231</v>
@@ -6727,7 +6727,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>231</v>
@@ -6756,7 +6756,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>19</v>
@@ -6785,7 +6785,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>19</v>
@@ -6814,7 +6814,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>30</v>
@@ -6843,7 +6843,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>30</v>
@@ -6872,7 +6872,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>231</v>
@@ -6901,7 +6901,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>231</v>
@@ -6930,7 +6930,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>231</v>
@@ -6959,7 +6959,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>231</v>
@@ -6988,7 +6988,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="1">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>231</v>
@@ -7017,7 +7017,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>231</v>
@@ -7046,7 +7046,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>231</v>
@@ -7075,7 +7075,7 @@
         <v>10</v>
       </c>
       <c r="B35" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>231</v>
